--- a/ExcelPln2/Input/Test17102016/do cwiczen planogram fajki__VALID test.xlsx
+++ b/ExcelPln2/Input/Test17102016/do cwiczen planogram fajki__VALID test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>PropertyName</t>
   </si>
@@ -38,198 +38,6 @@
   </si>
   <si>
     <t>SHELL</t>
-  </si>
-  <si>
-    <t>2 x Vogue Bleue Clic 812</t>
-  </si>
-  <si>
-    <t>2 x Vogue Lilas Clic 15157</t>
-  </si>
-  <si>
-    <t>2 x Vogue Menthe Clic
-490</t>
-  </si>
-  <si>
-    <t>2 x Vogue M. Eclat Clic
-15158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOGUE La CIGARETTE BLEUE 1116 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOGUE La CIGARETTE LILAS 1118 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOGUE La CIGARETTE MENTHE 1117 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOGUE La CIGARETTE M. ECLAT 1119 </t>
-  </si>
-  <si>
-    <t>Lucky Strike Flow
-6812</t>
-  </si>
-  <si>
-    <t>Lucky Strike 22 Red 809</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lucky Strike 22 Blue 810</t>
-  </si>
-  <si>
-    <t>Lucky Strike BD Red 25729</t>
-  </si>
-  <si>
-    <t>Lucky Strike Red Zone 28166</t>
-  </si>
-  <si>
-    <t>LUCKY STRIKE COLD 1729</t>
-  </si>
-  <si>
-    <t>Pall Mall SSlim Blue
-17620</t>
-  </si>
-  <si>
-    <t>Pall Mall SSlim Menthol 17622</t>
-  </si>
-  <si>
-    <t>Pall Mall SS Menthol Smooth 
- 23796</t>
-  </si>
-  <si>
-    <t>Pall Mall SS Violet Sensation
-816</t>
-  </si>
-  <si>
-    <t>2538 PALL MALL RED POCKET</t>
-  </si>
-  <si>
-    <t>Pall Mall Red 
-797</t>
-  </si>
-  <si>
-    <t>Pall Mall Blue
-798</t>
-  </si>
-  <si>
-    <t>Pall Mall Silver
-12342</t>
-  </si>
-  <si>
-    <t>Pall Mall Green
-16442</t>
-  </si>
-  <si>
-    <t>Pall Mall Crush
-790</t>
-  </si>
-  <si>
-    <t>Cristal Menthol Balance
- 3565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucky Strike BD Blue 25730 </t>
-  </si>
-  <si>
-    <t>2539 PALL MALL BLUE POCKET</t>
-  </si>
-  <si>
-    <t>Pall Mall Crisp
-821</t>
-  </si>
-  <si>
-    <t>Cristal Menthol Silver
- 6819</t>
-  </si>
-  <si>
-    <t>Viceroy 100 Red 24461</t>
-  </si>
-  <si>
-    <t>Viceroy KS Red
-19053</t>
-  </si>
-  <si>
-    <t>Viceroy 23 Red  25277</t>
-  </si>
-  <si>
-    <t>Viceroy 100 Blue 24462</t>
-  </si>
-  <si>
-    <t>Viceroy KS Blue
- 19054</t>
-  </si>
-  <si>
-    <t>Viceroy 23 Blue 25278</t>
-  </si>
-  <si>
-    <t>Viceroy KS Silver Filter
-19420</t>
-  </si>
-  <si>
-    <t>Viceroy KS Menthol
-19421</t>
-  </si>
-  <si>
-    <t>Viceroy KS Switch 25529</t>
-  </si>
-  <si>
-    <t>Viceroy 24 Red Sline 19469</t>
-  </si>
-  <si>
-    <t>Viceroy S-Line 40 Red 19518</t>
-  </si>
-  <si>
-    <t>Viceroy S-Line 20 Blue 12353</t>
-  </si>
-  <si>
-    <t>Viceroy 24 Blue Sline 19470</t>
-  </si>
-  <si>
-    <t>Viceroy S-Line 40 Blue 19519</t>
-  </si>
-  <si>
-    <t>Viceroy S-Line 20 Silver 19625</t>
-  </si>
-  <si>
-    <t>Viceroy S-Line 40 Silver 19520</t>
-  </si>
-  <si>
-    <t>Viceroy 24 Menthol Sline 19471</t>
-  </si>
-  <si>
-    <t>Nevada SSlim Blue
-28947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nevada Sslim Menthol
-28946  </t>
-  </si>
-  <si>
-    <t>Nevada Original 
-19472</t>
-  </si>
-  <si>
-    <t>Nevada Blue
-19473</t>
-  </si>
-  <si>
-    <t>Nevada Menthol
-19474</t>
-  </si>
-  <si>
-    <t>Prince Rich Taste
- 3594</t>
-  </si>
-  <si>
-    <t>JIII Sobieski Czerwony 
-792</t>
-  </si>
-  <si>
-    <t>JIII Sobieski Niebieski
-793</t>
-  </si>
-  <si>
-    <t>JIII Sobieski Błękitny
-794</t>
   </si>
 </sst>
 </file>
@@ -595,9 +403,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -609,6 +414,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,6285 +448,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1190625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 185" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Bleue Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="476609" y="847545"/>
-          <a:ext cx="266700" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1190625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 188" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Bleue Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="762359" y="847545"/>
-          <a:ext cx="266700" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1162050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 186" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1218481" y="818970"/>
-          <a:ext cx="266700" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1162050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 187" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1523281" y="818970"/>
-          <a:ext cx="247650" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 261" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1931778" y="799920"/>
-          <a:ext cx="266700" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1171575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 303" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2255628" y="828495"/>
-          <a:ext cx="238125" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 263" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2740325" y="790395"/>
-          <a:ext cx="266700" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1152525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 264" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3054650" y="799920"/>
-          <a:ext cx="257175" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 126"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3538987" y="923745"/>
-          <a:ext cx="495300" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1171575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 95"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4348971" y="904695"/>
-          <a:ext cx="523875" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5081318" y="942795"/>
-          <a:ext cx="581025" cy="1009650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1238250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 315"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5842240" y="923745"/>
-          <a:ext cx="514350" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1019175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 83"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6679002" y="999945"/>
-          <a:ext cx="504825" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1019175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 83"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7533017" y="999945"/>
-          <a:ext cx="504825" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1019175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 83"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8369779" y="999945"/>
-          <a:ext cx="504825" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1123950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9113987" y="952320"/>
-          <a:ext cx="695325" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1181100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9934395" y="990420"/>
-          <a:ext cx="714375" cy="923925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1152525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10991311" y="933270"/>
-          <a:ext cx="609600" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1181100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Obraz 95"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11785840" y="914220"/>
-          <a:ext cx="609600" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1200150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Obraz 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12557724" y="942795"/>
-          <a:ext cx="666750" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1133475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13430789" y="818970"/>
-          <a:ext cx="571500" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1123950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 111"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14261621" y="838020"/>
-          <a:ext cx="561975" cy="1019175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1114425</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15047523" y="847545"/>
-          <a:ext cx="542925" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1209675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 87"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15821205" y="799920"/>
-          <a:ext cx="619125" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1057275</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Obraz 276"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16705592" y="1028520"/>
-          <a:ext cx="485775" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1104900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 34"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17479274" y="990420"/>
-          <a:ext cx="552450" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1133475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18240195" y="1018995"/>
-          <a:ext cx="552450" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1152525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 38"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19041553" y="1038045"/>
-          <a:ext cx="552450" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1152525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 39"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19845607" y="1038045"/>
-          <a:ext cx="542925" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1276350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 102"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20608865" y="1038045"/>
-          <a:ext cx="619125" cy="971550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1152525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 74"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21418850" y="971370"/>
-          <a:ext cx="590550" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1190625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 227" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Bleue Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="476609" y="3176677"/>
-          <a:ext cx="266700" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1190625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 230" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Bleue Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="762359" y="3176677"/>
-          <a:ext cx="266700" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1162050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 228" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1218481" y="3148102"/>
-          <a:ext cx="266700" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1162050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 229" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1523281" y="3148102"/>
-          <a:ext cx="247650" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 295" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1931778" y="3129052"/>
-          <a:ext cx="266700" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1133475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 296" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2331828" y="3119527"/>
-          <a:ext cx="265622" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1133475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 262" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3073700" y="3119527"/>
-          <a:ext cx="238125" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1133475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 296" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2331828" y="3119527"/>
-          <a:ext cx="265622" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 297" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2740325" y="3119527"/>
-          <a:ext cx="266700" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1152525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 298" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3054650" y="3129052"/>
-          <a:ext cx="257175" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1123950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 126"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3577087" y="3233827"/>
-          <a:ext cx="495300" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1171575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 95"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4348971" y="3233827"/>
-          <a:ext cx="523875" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5081318" y="3271927"/>
-          <a:ext cx="581025" cy="1009650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1238250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 318"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5842240" y="3252877"/>
-          <a:ext cx="514350" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1019175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 83"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6679002" y="3329077"/>
-          <a:ext cx="504825" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1019175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 83"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7533017" y="3329077"/>
-          <a:ext cx="504825" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1019175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 83"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8369779" y="3329077"/>
-          <a:ext cx="504825" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1123950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9113987" y="3281452"/>
-          <a:ext cx="695325" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1181100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9934395" y="3319552"/>
-          <a:ext cx="714375" cy="923925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10972261" y="3233827"/>
-          <a:ext cx="657225" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1181100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Obraz 95"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11785840" y="3243352"/>
-          <a:ext cx="609600" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1200150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Obraz 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12557724" y="3271927"/>
-          <a:ext cx="666750" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1133475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13430789" y="3148102"/>
-          <a:ext cx="571500" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1123950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 111"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14261621" y="3167152"/>
-          <a:ext cx="561975" cy="1019175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1114425</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15047523" y="3176677"/>
-          <a:ext cx="542925" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1209675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 87"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15821205" y="3129052"/>
-          <a:ext cx="619125" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1123950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Obraz 274"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16734167" y="3348127"/>
-          <a:ext cx="476250" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1104900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 34"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17479274" y="3319552"/>
-          <a:ext cx="552450" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1133475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18240195" y="3348127"/>
-          <a:ext cx="552450" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1152525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 38"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19041553" y="3367177"/>
-          <a:ext cx="552450" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1152525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 39"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19845607" y="3367177"/>
-          <a:ext cx="542925" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1257300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 109"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20589815" y="3348127"/>
-          <a:ext cx="628650" cy="971550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1152525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 75"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21466475" y="3300502"/>
-          <a:ext cx="523875" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1276350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 299"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="419459" y="5652818"/>
-          <a:ext cx="619125" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="A6A6A6"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1276350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 298"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1180381" y="5776643"/>
-          <a:ext cx="590550" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="A6A6A6"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1276350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 298"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1922253" y="5776643"/>
-          <a:ext cx="590550" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="A6A6A6"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1276350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 300"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2635550" y="5814743"/>
-          <a:ext cx="657225" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="A6A6A6"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1276350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 302"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3510412" y="5633768"/>
-          <a:ext cx="609600" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="A6A6A6"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1276350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 301"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4339446" y="5757593"/>
-          <a:ext cx="646622" cy="962025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="A6A6A6"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1276350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 301"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5071793" y="5757593"/>
-          <a:ext cx="600075" cy="962025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="A6A6A6"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1276350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 315"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5775565" y="5757593"/>
-          <a:ext cx="666750" cy="962025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="A6A6A6"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1276350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 58"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6650427" y="5748068"/>
-          <a:ext cx="600075" cy="971550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="A6A6A6"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1276350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 321"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7494917" y="5767118"/>
-          <a:ext cx="638175" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="A6A6A6"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1276350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 46"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8407879" y="5786168"/>
-          <a:ext cx="561975" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>981075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 60"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9199712" y="5681393"/>
-          <a:ext cx="476250" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1019175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 104"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9934395" y="5662343"/>
-          <a:ext cx="647700" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>923925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 58"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11124661" y="5671868"/>
-          <a:ext cx="390525" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 61"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11833465" y="5652818"/>
-          <a:ext cx="476250" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 61"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12652974" y="5652818"/>
-          <a:ext cx="476250" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>981075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 64"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13430789" y="5624243"/>
-          <a:ext cx="647700" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>971550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 59"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14356871" y="5719493"/>
-          <a:ext cx="390525" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>990600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 65"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15418998" y="5633768"/>
-          <a:ext cx="640332" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>962025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Picture 62"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16734167" y="5681393"/>
-          <a:ext cx="466725" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1200150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Picture 66"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17479274" y="5595668"/>
-          <a:ext cx="571500" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1200150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Picture 67"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18221145" y="5595668"/>
-          <a:ext cx="571500" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Picture 68"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19041553" y="5700443"/>
-          <a:ext cx="571500" cy="885825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1123950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Picture 69"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19826557" y="5700443"/>
-          <a:ext cx="561975" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Picture 70"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20637440" y="5719493"/>
-          <a:ext cx="552450" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1162050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Picture 76"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21428375" y="5614718"/>
-          <a:ext cx="552450" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1209675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Picture 71"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="486134" y="8015917"/>
-          <a:ext cx="542925" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1200150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Picture 72"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1294681" y="8015917"/>
-          <a:ext cx="551372" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1209675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Picture 73"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1969878" y="8034967"/>
-          <a:ext cx="542925" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11246,7 +4775,7 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11461,268 +4990,102 @@
     </row>
     <row r="5" spans="1:29" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="8"/>
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="8"/>
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" ht="179.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
-      <c r="B7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" s="29" t="s">
-        <v>50</v>
-      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="29"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="W7" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="X7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB7" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="10"/>
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" ht="162.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -41531,6 +34894,5 @@
     <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelPln2/Input/Test17102016/do cwiczen planogram fajki__VALID test.xlsx
+++ b/ExcelPln2/Input/Test17102016/do cwiczen planogram fajki__VALID test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>PropertyName</t>
   </si>
@@ -38,6 +38,186 @@
   </si>
   <si>
     <t>SHELL</t>
+  </si>
+  <si>
+    <t>2 x Vogue Bleue Clic 812</t>
+  </si>
+  <si>
+    <t>2 x Vogue Lilas Clic 15157</t>
+  </si>
+  <si>
+    <t>2 x Vogue Menthe Clic
+490</t>
+  </si>
+  <si>
+    <t>2 x Vogue M. Eclat Clic
+15158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOGUE La CIGARETTE BLEUE 1116 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOGUE La CIGARETTE LILAS 1118 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOGUE La CIGARETTE MENTHE 1117 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOGUE La CIGARETTE M. ECLAT 1119 </t>
+  </si>
+  <si>
+    <t>Lucky Strike Flow
+6812</t>
+  </si>
+  <si>
+    <t>Lucky Strike 22 Red 809</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lucky Strike 22 Blue 810</t>
+  </si>
+  <si>
+    <t>Lucky Strike BD Red 25729</t>
+  </si>
+  <si>
+    <t>Lucky Strike Red Zone 28166</t>
+  </si>
+  <si>
+    <t>LUCKY STRIKE COLD 1729</t>
+  </si>
+  <si>
+    <t>Pall Mall SSlim Blue
+17620</t>
+  </si>
+  <si>
+    <t>Pall Mall SSlim Menthol 17622</t>
+  </si>
+  <si>
+    <t>Pall Mall SS Menthol Smooth 
+ 23796</t>
+  </si>
+  <si>
+    <t>Pall Mall SS Violet Sensation
+816</t>
+  </si>
+  <si>
+    <t>2538 PALL MALL RED POCKET</t>
+  </si>
+  <si>
+    <t>Pall Mall Red 
+797</t>
+  </si>
+  <si>
+    <t>Pall Mall Blue
+798</t>
+  </si>
+  <si>
+    <t>Pall Mall Silver
+12342</t>
+  </si>
+  <si>
+    <t>Pall Mall Green
+16442</t>
+  </si>
+  <si>
+    <t>Pall Mall Crush
+790</t>
+  </si>
+  <si>
+    <t>Cristal Menthol Balance
+ 3565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucky Strike BD Blue 25730 </t>
+  </si>
+  <si>
+    <t>2539 PALL MALL BLUE POCKET</t>
+  </si>
+  <si>
+    <t>Pall Mall Crisp
+821</t>
+  </si>
+  <si>
+    <t>Cristal Menthol Silver
+ 6819</t>
+  </si>
+  <si>
+    <t>Viceroy 100 Red 24461</t>
+  </si>
+  <si>
+    <t>Viceroy KS Red
+19053</t>
+  </si>
+  <si>
+    <t>Viceroy 23 Red  25277</t>
+  </si>
+  <si>
+    <t>Viceroy 100 Blue 24462</t>
+  </si>
+  <si>
+    <t>Viceroy KS Blue
+ 19054</t>
+  </si>
+  <si>
+    <t>Viceroy 23 Blue 25278</t>
+  </si>
+  <si>
+    <t>Viceroy KS Silver Filter
+19420</t>
+  </si>
+  <si>
+    <t>Viceroy KS Menthol
+19421</t>
+  </si>
+  <si>
+    <t>Viceroy KS Switch 25529</t>
+  </si>
+  <si>
+    <t>Viceroy 24 Red Sline 19469</t>
+  </si>
+  <si>
+    <t>Viceroy S-Line 40 Red 19518</t>
+  </si>
+  <si>
+    <t>Viceroy S-Line 20 Blue 12353</t>
+  </si>
+  <si>
+    <t>Viceroy 24 Blue Sline 19470</t>
+  </si>
+  <si>
+    <t>Viceroy S-Line 40 Blue 19519</t>
+  </si>
+  <si>
+    <t>Viceroy S-Line 20 Silver 19625</t>
+  </si>
+  <si>
+    <t>Viceroy S-Line 40 Silver 19520</t>
+  </si>
+  <si>
+    <t>Viceroy 24 Menthol Sline 19471</t>
+  </si>
+  <si>
+    <t>Nevada SSlim Blue
+28947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevada Sslim Menthol
+28946  </t>
+  </si>
+  <si>
+    <t>Nevada Original 
+19472</t>
+  </si>
+  <si>
+    <t>Nevada Blue
+19473</t>
+  </si>
+  <si>
+    <t>Nevada Menthol
+19474</t>
+  </si>
+  <si>
+    <t>Prince Rich Taste
+ 3594</t>
   </si>
 </sst>
 </file>
@@ -185,12 +365,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -204,6 +378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +526,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -361,37 +541,25 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,29 +571,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -448,6 +634,6081 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1190625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 185" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Bleue Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="476609" y="847545"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1190625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 188" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Bleue Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762359" y="847545"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 186" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1218481" y="818970"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 187" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1523281" y="818970"/>
+          <a:ext cx="247650" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 261" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1931778" y="799920"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1171575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 303" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2255628" y="828495"/>
+          <a:ext cx="238125" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 263" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2740325" y="790395"/>
+          <a:ext cx="266700" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 264" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3054650" y="799920"/>
+          <a:ext cx="257175" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 126"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3538987" y="923745"/>
+          <a:ext cx="495300" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1171575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4348971" y="904695"/>
+          <a:ext cx="523875" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5081318" y="942795"/>
+          <a:ext cx="581025" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1238250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 315"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5842240" y="923745"/>
+          <a:ext cx="514350" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6679002" y="999945"/>
+          <a:ext cx="504825" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7533017" y="999945"/>
+          <a:ext cx="504825" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8369779" y="999945"/>
+          <a:ext cx="504825" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9113987" y="952320"/>
+          <a:ext cx="695325" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1181100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9934395" y="990420"/>
+          <a:ext cx="714375" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10991311" y="933270"/>
+          <a:ext cx="609600" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1181100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Obraz 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11785840" y="914220"/>
+          <a:ext cx="609600" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Obraz 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12557724" y="942795"/>
+          <a:ext cx="666750" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13430789" y="818970"/>
+          <a:ext cx="571500" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 111"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14261621" y="838020"/>
+          <a:ext cx="561975" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1114425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15047523" y="847545"/>
+          <a:ext cx="542925" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1209675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 87"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15821205" y="799920"/>
+          <a:ext cx="619125" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1057275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Obraz 276"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16705592" y="1028520"/>
+          <a:ext cx="485775" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1104900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17479274" y="990420"/>
+          <a:ext cx="552450" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18240195" y="1018995"/>
+          <a:ext cx="552450" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19041553" y="1038045"/>
+          <a:ext cx="552450" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19845607" y="1038045"/>
+          <a:ext cx="542925" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 102"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20608865" y="1038045"/>
+          <a:ext cx="619125" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 74"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21418850" y="971370"/>
+          <a:ext cx="590550" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1190625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 227" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Bleue Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="476609" y="3176677"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1190625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 230" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Bleue Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762359" y="3176677"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 228" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1218481" y="3148102"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 229" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1523281" y="3148102"/>
+          <a:ext cx="247650" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 295" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1931778" y="3129052"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 296" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2331828" y="3119527"/>
+          <a:ext cx="265622" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 262" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3073700" y="3119527"/>
+          <a:ext cx="238125" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 296" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2331828" y="3119527"/>
+          <a:ext cx="265622" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 297" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2740325" y="3119527"/>
+          <a:ext cx="266700" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 298" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3054650" y="3129052"/>
+          <a:ext cx="257175" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 126"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3577087" y="3233827"/>
+          <a:ext cx="495300" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1171575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4348971" y="3233827"/>
+          <a:ext cx="523875" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5081318" y="3271927"/>
+          <a:ext cx="581025" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1238250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 318"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5842240" y="3252877"/>
+          <a:ext cx="514350" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6679002" y="3329077"/>
+          <a:ext cx="504825" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7533017" y="3329077"/>
+          <a:ext cx="504825" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8369779" y="3329077"/>
+          <a:ext cx="504825" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9113987" y="3281452"/>
+          <a:ext cx="695325" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1181100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9934395" y="3319552"/>
+          <a:ext cx="714375" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972261" y="3233827"/>
+          <a:ext cx="657225" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1181100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Obraz 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11785840" y="3243352"/>
+          <a:ext cx="609600" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Obraz 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12557724" y="3271927"/>
+          <a:ext cx="666750" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13430789" y="3148102"/>
+          <a:ext cx="571500" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 111"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14261621" y="3167152"/>
+          <a:ext cx="561975" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1114425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15047523" y="3176677"/>
+          <a:ext cx="542925" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1209675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 87"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15821205" y="3129052"/>
+          <a:ext cx="619125" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Obraz 274"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16734167" y="3348127"/>
+          <a:ext cx="476250" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1104900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17479274" y="3319552"/>
+          <a:ext cx="552450" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18240195" y="3348127"/>
+          <a:ext cx="552450" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19041553" y="3367177"/>
+          <a:ext cx="552450" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19845607" y="3367177"/>
+          <a:ext cx="542925" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1257300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 109"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20589815" y="3348127"/>
+          <a:ext cx="628650" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1152525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21466475" y="3300502"/>
+          <a:ext cx="523875" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 299"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="419459" y="5652818"/>
+          <a:ext cx="619125" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 298"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1180381" y="5776643"/>
+          <a:ext cx="590550" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 298"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1922253" y="5776643"/>
+          <a:ext cx="590550" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 300"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2635550" y="5814743"/>
+          <a:ext cx="657225" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 302"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3510412" y="5633768"/>
+          <a:ext cx="609600" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 301"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4339446" y="5757593"/>
+          <a:ext cx="646622" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 301"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5071793" y="5757593"/>
+          <a:ext cx="600075" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 315"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5775565" y="5757593"/>
+          <a:ext cx="666750" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6650427" y="5748068"/>
+          <a:ext cx="600075" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 321"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7494917" y="5767118"/>
+          <a:ext cx="638175" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="A6A6A6"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8407879" y="5786168"/>
+          <a:ext cx="561975" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9199712" y="5681393"/>
+          <a:ext cx="476250" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 104"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9934395" y="5662343"/>
+          <a:ext cx="647700" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>923925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11124661" y="5671868"/>
+          <a:ext cx="390525" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11833465" y="5652818"/>
+          <a:ext cx="476250" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12652974" y="5652818"/>
+          <a:ext cx="476250" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13430789" y="5624243"/>
+          <a:ext cx="647700" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14356871" y="5719493"/>
+          <a:ext cx="390525" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>990600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15418998" y="5633768"/>
+          <a:ext cx="640332" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>962025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16734167" y="5681393"/>
+          <a:ext cx="466725" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17479274" y="5595668"/>
+          <a:ext cx="571500" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18221145" y="5595668"/>
+          <a:ext cx="571500" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19041553" y="5700443"/>
+          <a:ext cx="571500" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 69"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19826557" y="5700443"/>
+          <a:ext cx="561975" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20637440" y="5719493"/>
+          <a:ext cx="552450" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 76"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21428375" y="5614718"/>
+          <a:ext cx="552450" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4775,7 +11036,7 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4841,10 +11102,10 @@
     </row>
     <row r="2" spans="1:29" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -4873,10 +11134,10 @@
     </row>
     <row r="3" spans="1:29" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4905,374 +11166,534 @@
     </row>
     <row r="4" spans="1:29" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="20">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>2</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>3</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="17">
         <v>4</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="17">
         <v>5</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="17">
         <v>6</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="17">
         <v>7</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="17">
         <v>8</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="17">
         <v>9</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="17">
         <v>10</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="17">
         <v>11</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="17">
         <v>12</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="17">
         <v>13</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="17">
         <v>14</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="17">
         <v>15</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="17">
         <v>16</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="17">
         <v>17</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="17">
         <v>18</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="17">
         <v>19</v>
       </c>
-      <c r="U4" s="21">
+      <c r="U4" s="17">
         <v>20</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V4" s="17">
         <v>21</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W4" s="17">
         <v>22</v>
       </c>
-      <c r="X4" s="21">
+      <c r="X4" s="17">
         <v>23</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="Y4" s="17">
         <v>24</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="Z4" s="17">
         <v>25</v>
       </c>
-      <c r="AA4" s="21">
+      <c r="AA4" s="17">
         <v>26</v>
       </c>
-      <c r="AB4" s="21">
+      <c r="AB4" s="17">
         <v>27</v>
       </c>
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="8"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="8"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" ht="179.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="10"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="32"/>
+      <c r="V7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" ht="162.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:29" ht="120.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:29" ht="120.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="14"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="10"/>
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" ht="120.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:29" ht="120.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" ht="120.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="1"/>
@@ -34894,5 +41315,6 @@
     <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelPln2/Input/Test17102016/do cwiczen planogram fajki__VALID test.xlsx
+++ b/ExcelPln2/Input/Test17102016/do cwiczen planogram fajki__VALID test.xlsx
@@ -224,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -324,6 +324,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="11">
@@ -526,7 +533,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -604,6 +611,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7002,12 +7010,12 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B20" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="29.75" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="26" width="7.625" customWidth="1"/>
   </cols>
@@ -7021,7 +7029,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -11035,8 +11043,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11102,10 +11110,10 @@
     </row>
     <row r="2" spans="1:29" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -11134,10 +11142,10 @@
     </row>
     <row r="3" spans="1:29" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -11250,7 +11258,9 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
       <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
@@ -11335,7 +11345,9 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="15">
+        <v>2</v>
+      </c>
       <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
@@ -11420,7 +11432,9 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" ht="179.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
       <c r="B7" s="20" t="s">
         <v>35</v>
       </c>
@@ -11475,10 +11489,10 @@
       <c r="S7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="31" t="s">
+      <c r="T7" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="U7" s="32"/>
+      <c r="U7" s="33"/>
       <c r="V7" s="20" t="s">
         <v>51</v>
       </c>
@@ -11503,7 +11517,9 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" ht="162.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="15">
+        <v>4</v>
+      </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
